--- a/content/drafts/entitats/Tipus_identificador_persona_fisica.xlsx
+++ b/content/drafts/entitats/Tipus_identificador_persona_fisica.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/36.Tipus_identificador/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\temp\modelatge\Tipus_identificador_persona_fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{A4375451-4A34-4889-B7C9-7D35FD06A5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726B7CBF-F7A8-42A3-9967-969673A6844D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD62AA6-A2ED-4AC2-92BC-CAE615ACA269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tipus_Identificador" sheetId="1" r:id="rId1"/>
+    <sheet name="Tipus_idint_persona_fisica" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>DNI</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Altres/Diversos</t>
   </si>
   <si>
-    <t>Tipus_Identificador</t>
-  </si>
-  <si>
     <t>Cèdula d'Identitat d'Estrangers</t>
   </si>
   <si>
@@ -241,6 +238,18 @@
   </si>
   <si>
     <t>Certificat de Registre de ciutadans de la Unió Europea</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Document d’identitat estranger</t>
+  </si>
+  <si>
+    <t>DIE</t>
+  </si>
+  <si>
+    <t>Tipus_identificador_persona_fisica</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C25" totalsRowShown="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C26" totalsRowShown="0" tableBorderDxfId="2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripció"/>
@@ -628,11 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -643,10 +650,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -654,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -805,100 +812,111 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>68</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -907,7 +925,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A24:A25 A4:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A25:A26 A4:A5 A6:A24" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
